--- a/Aulas/Reconhecimento de Imagens/OCR/form_data.xlsx
+++ b/Aulas/Reconhecimento de Imagens/OCR/form_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Entity_Name</t>
   </si>
@@ -34,10 +34,13 @@
     <t>nome_paciente</t>
   </si>
   <si>
-    <t>U o ROOO</t>
-  </si>
-  <si>
-    <t>reatesasarmital aAStâAÂÁAIIAD A</t>
+    <t>7718002</t>
+  </si>
+  <si>
+    <t>2 [4/0/5/2/0 2/38</t>
+  </si>
+  <si>
+    <t>c Kaique Cauê Kauê Baptista</t>
   </si>
   <si>
     <t>text</t>
@@ -419,8 +422,11 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
